--- a/Cleaned Dataset.xlsx
+++ b/Cleaned Dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K192"/>
+  <dimension ref="A1:N192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,21 @@
           <t>Closing Times</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Latitude</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Longitude</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -529,7 +544,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>· 020 8316 2528</t>
+          <t xml:space="preserve"> 020 8316 2528</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -539,7 +554,18 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>⋅ Closes 9:30 pm</t>
+          <t xml:space="preserve"> Closes 9:30 pm</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>51.4910033</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0674984</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Square Bubbles, 23, Powis Street, Callis Yard, Royal Borough of Greenwich, London, Greater London, England, SE18 6HZ, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -592,7 +618,18 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>⋅ Closes 11 pm</t>
+          <t xml:space="preserve"> Closes 11 pm</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>51.5129223</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-0.129618</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Shaftesbury Avenue, Seven Dials, Bloomsbury, City of Westminster, Greater London, England, W1D 5AY, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -635,7 +672,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>· 020 8316 7807</t>
+          <t xml:space="preserve"> 020 8316 7807</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -645,7 +682,18 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>⋅ Closes 10 pm</t>
+          <t xml:space="preserve"> Closes 10 pm</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>51.4874118</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.09209340000000001</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Boba &amp; Co, 90, Plumstead High Street, Plumstead, Royal Borough of Greenwich, London, Greater London, England, SE18 1DL, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -688,7 +736,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>· 020 7998 0313</t>
+          <t xml:space="preserve"> 020 7998 0313</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -698,7 +746,18 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>⋅ Closes 11 pm</t>
+          <t xml:space="preserve"> Closes 11 pm</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>39.0429113</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-77.375091</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>23, Newport Court, Sugarland Run Residential Community, Sugarland Run, Loudoun County, Virginia, 20164, United States</t>
         </is>
       </c>
     </row>
@@ -741,7 +800,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>· 07543 430110</t>
+          <t xml:space="preserve"> 07543 430110</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -751,7 +810,18 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>⋅ Closes 9:30 pm</t>
+          <t xml:space="preserve"> Closes 9:30 pm</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>53.7224084</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-1.8614943</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2 Commercial Street, Old Cock Yard, Woolshops, Dean Clough, Halifax, Calderdale, West Yorkshire, England, HX1 1NX, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -804,7 +874,18 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>⋅ Closes 10 pm</t>
+          <t xml:space="preserve"> Closes 10 pm</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>51.4937601</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.1766822</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Hiya Boba, 27, Bute Street, The Boltons, Brompton, Royal Borough of Kensington and Chelsea, London, Greater London, England, SW7 3EY, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -847,7 +928,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>· 020 3795 8728</t>
+          <t xml:space="preserve"> 020 3795 8728</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -857,9 +938,12 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>⋅ Closes 8 pm</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> Closes 8 pm</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -910,7 +994,18 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>⋅ Closes 10 pm</t>
+          <t xml:space="preserve"> Closes 10 pm</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>51.5095401</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-0.126468</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Rosetta, 38, William IV Street, Covent Garden, Bloomsbury, London, Greater London, England, WC2B 4DD, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -953,17 +1048,28 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>· 07752 546905</t>
+          <t xml:space="preserve"> 07752 546905</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>⋅ Opens 3 pm</t>
+          <t xml:space="preserve"> Opens 3 pm</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
           <t>nan</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>51.5591423</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-0.0076403</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>High Road Leyton, Leyton, London Borough of Waltham Forest, London, Greater London, England, E10 5UQ, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1112,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>· 07572 781167</t>
+          <t xml:space="preserve"> 07572 781167</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1016,9 +1122,12 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>⋅ Closes 9 pm</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> Closes 9 pm</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1059,7 +1168,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>· 07766 749748</t>
+          <t xml:space="preserve"> 07766 749748</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1069,7 +1178,18 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>⋅ Closes 11 pm</t>
+          <t xml:space="preserve"> Closes 11 pm</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>51.4923409</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.0634676</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Powis Street, Callis Yard, Royal Borough of Greenwich, London, Greater London, England, SE18 6NL, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -1122,7 +1242,18 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>⋅ Closes 9 pm</t>
+          <t xml:space="preserve"> Closes 9 pm</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>-27.3101864</v>
+      </c>
+      <c r="M13" t="n">
+        <v>153.0067873</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>17, Whitcomb Street, Bald Hills, City of Brisbane, Queensland, 4036, Australia</t>
         </is>
       </c>
     </row>
@@ -1165,7 +1296,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>· 020 7287 8310</t>
+          <t xml:space="preserve"> 020 7287 8310</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1175,7 +1306,18 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>⋅ Closes 10 pm</t>
+          <t xml:space="preserve"> Closes 10 pm</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>51.5127722</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-0.130749</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>29-30, Frith Street, Soho, City of Westminster, Greater London, England, W1D 4SG, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -1214,7 +1356,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>· 07540 994398</t>
+          <t xml:space="preserve"> 07540 994398</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1224,9 +1366,12 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>⋅ Closes 9 pm</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> Closes 9 pm</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1277,7 +1422,18 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>⋅ Closes 11 pm</t>
+          <t xml:space="preserve"> Closes 11 pm</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>38.8034342</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-90.57258179999999</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>35, Newport Court, Ellington Place, Saint Peters, Saint Charles County, Missouri, 63376, United States</t>
         </is>
       </c>
     </row>
@@ -1316,7 +1472,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>· 07555 659313</t>
+          <t xml:space="preserve"> 07555 659313</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1326,9 +1482,12 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>⋅ Closes 11:30 pm</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> Closes 11:30 pm</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1369,7 +1528,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>· 020 7287 3762</t>
+          <t xml:space="preserve"> 020 7287 3762</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1379,7 +1538,18 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>⋅ Closes 8:30 pm</t>
+          <t xml:space="preserve"> Closes 8:30 pm</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>51.515236</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.1358978</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Nuttea, 5, Noel Street, Soho, London, Greater London, England, W1F 8GD, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -1418,7 +1588,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>· 020 3876 8107</t>
+          <t xml:space="preserve"> 020 3876 8107</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1428,7 +1598,18 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>⋅ Closes 7 pm</t>
+          <t xml:space="preserve"> Closes 7 pm</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>51.4784975</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-0.0261788</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Lai Cha, 133A, Deptford High Street, Albury Court, Deptford, London Borough of Lewisham, London, Greater London, England, SE8 4NS, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -1467,7 +1648,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>· 020 7033 4004</t>
+          <t xml:space="preserve"> 020 7033 4004</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1477,7 +1658,18 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>⋅ Closes 11 pm</t>
+          <t xml:space="preserve"> Closes 11 pm</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>39.5195094</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-83.92136069999999</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>275, Hackney Road, Chester Township, Clinton County, Ohio, 45177, United States</t>
         </is>
       </c>
     </row>
@@ -1520,7 +1712,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>· 020 7494 4231</t>
+          <t xml:space="preserve"> 020 7494 4231</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1530,7 +1722,18 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>⋅ Closes 12 am</t>
+          <t xml:space="preserve"> Closes 12 am</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>51.5119755</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-0.1335372</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Bubbleology, 49, Rupert Street, Soho, London, Greater London, England, W1D 7PF, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1762,7 @@
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1579,7 +1782,18 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>⋅ Closes 8 pm</t>
+          <t xml:space="preserve"> Closes 8 pm</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>40.788106</v>
+      </c>
+      <c r="M22" t="n">
+        <v>35.0218961</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Null, Saray, Hamamözü, Amasya, Karadeniz Bölgesi, Türkiye</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1826,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1622,7 +1836,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>· 020 4617 1736</t>
+          <t xml:space="preserve"> 020 4617 1736</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1633,6 +1847,17 @@
       <c r="K23" t="inlineStr">
         <is>
           <t>nan</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>40.788106</v>
+      </c>
+      <c r="M23" t="n">
+        <v>35.0218961</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Null, Saray, Hamamözü, Amasya, Karadeniz Bölgesi, Türkiye</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1890,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1675,7 +1900,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>· 020 3500 1717</t>
+          <t xml:space="preserve"> 020 3500 1717</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1686,6 +1911,17 @@
       <c r="K24" t="inlineStr">
         <is>
           <t>nan</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>40.788106</v>
+      </c>
+      <c r="M24" t="n">
+        <v>35.0218961</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Null, Saray, Hamamözü, Amasya, Karadeniz Bölgesi, Türkiye</t>
         </is>
       </c>
     </row>
@@ -1718,7 +1954,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1728,7 +1964,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>· 07719 782283</t>
+          <t xml:space="preserve"> 07719 782283</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1739,6 +1975,17 @@
       <c r="K25" t="inlineStr">
         <is>
           <t>nan</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>40.788106</v>
+      </c>
+      <c r="M25" t="n">
+        <v>35.0218961</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Null, Saray, Hamamözü, Amasya, Karadeniz Bölgesi, Türkiye</t>
         </is>
       </c>
     </row>
@@ -1767,7 +2014,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Open now</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1788,6 +2035,17 @@
       <c r="K26" t="inlineStr">
         <is>
           <t>nan</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>40.788106</v>
+      </c>
+      <c r="M26" t="n">
+        <v>35.0218961</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Null, Saray, Hamamözü, Amasya, Karadeniz Bölgesi, Türkiye</t>
         </is>
       </c>
     </row>
@@ -1820,7 +2078,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1830,7 +2088,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>· 020 8127 1449</t>
+          <t xml:space="preserve"> 020 8127 1449</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1840,7 +2098,18 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>⋅ Closes 9 pm</t>
+          <t xml:space="preserve"> Closes 9 pm</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>40.788106</v>
+      </c>
+      <c r="M27" t="n">
+        <v>35.0218961</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Null, Saray, Hamamözü, Amasya, Karadeniz Bölgesi, Türkiye</t>
         </is>
       </c>
     </row>
@@ -1869,7 +2138,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1879,7 +2148,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>· 07845 213861</t>
+          <t xml:space="preserve"> 07845 213861</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1889,7 +2158,18 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>⋅ Closes 10:30 pm</t>
+          <t xml:space="preserve"> Closes 10:30 pm</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>40.788106</v>
+      </c>
+      <c r="M28" t="n">
+        <v>35.0218961</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Null, Saray, Hamamözü, Amasya, Karadeniz Bölgesi, Türkiye</t>
         </is>
       </c>
     </row>
@@ -1918,7 +2198,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1928,7 +2208,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>· 07387 226869</t>
+          <t xml:space="preserve"> 07387 226869</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1938,7 +2218,18 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>⋅ Closes 9 pm</t>
+          <t xml:space="preserve"> Closes 9 pm</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>40.788106</v>
+      </c>
+      <c r="M29" t="n">
+        <v>35.0218961</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Null, Saray, Hamamözü, Amasya, Karadeniz Bölgesi, Türkiye</t>
         </is>
       </c>
     </row>
@@ -1967,7 +2258,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1987,7 +2278,18 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>⋅ Closes 10 pm</t>
+          <t xml:space="preserve"> Closes 10 pm</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>40.788106</v>
+      </c>
+      <c r="M30" t="n">
+        <v>35.0218961</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Null, Saray, Hamamözü, Amasya, Karadeniz Bölgesi, Türkiye</t>
         </is>
       </c>
     </row>
@@ -2020,7 +2322,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2030,7 +2332,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>· 07443 884258</t>
+          <t xml:space="preserve"> 07443 884258</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2040,7 +2342,18 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>⋅ Closes 8 pm</t>
+          <t xml:space="preserve"> Closes 8 pm</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>40.788106</v>
+      </c>
+      <c r="M31" t="n">
+        <v>35.0218961</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Null, Saray, Hamamözü, Amasya, Karadeniz Bölgesi, Türkiye</t>
         </is>
       </c>
     </row>
@@ -2069,7 +2382,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2079,7 +2392,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>· 020 7833 3269</t>
+          <t xml:space="preserve"> 020 7833 3269</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2089,7 +2402,18 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>⋅ Closes 9:30 pm</t>
+          <t xml:space="preserve"> Closes 9:30 pm</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>40.788106</v>
+      </c>
+      <c r="M32" t="n">
+        <v>35.0218961</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Null, Saray, Hamamözü, Amasya, Karadeniz Bölgesi, Türkiye</t>
         </is>
       </c>
     </row>
@@ -2122,7 +2446,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2132,7 +2456,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>· 020 7354 5330</t>
+          <t xml:space="preserve"> 020 7354 5330</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2143,6 +2467,17 @@
       <c r="K33" t="inlineStr">
         <is>
           <t>nan</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>40.788106</v>
+      </c>
+      <c r="M33" t="n">
+        <v>35.0218961</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Null, Saray, Hamamözü, Amasya, Karadeniz Bölgesi, Türkiye</t>
         </is>
       </c>
     </row>
@@ -2175,7 +2510,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2185,7 +2520,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>· 020 7247 6331</t>
+          <t xml:space="preserve"> 020 7247 6331</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2195,7 +2530,18 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>⋅ Closes 9 pm</t>
+          <t xml:space="preserve"> Closes 9 pm</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>40.788106</v>
+      </c>
+      <c r="M34" t="n">
+        <v>35.0218961</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Null, Saray, Hamamözü, Amasya, Karadeniz Bölgesi, Türkiye</t>
         </is>
       </c>
     </row>
@@ -2228,7 +2574,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2238,7 +2584,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>· 020 8129 1609</t>
+          <t xml:space="preserve"> 020 8129 1609</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2248,7 +2594,18 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>⋅ Closes 10 pm</t>
+          <t xml:space="preserve"> Closes 10 pm</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>40.788106</v>
+      </c>
+      <c r="M35" t="n">
+        <v>35.0218961</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Null, Saray, Hamamözü, Amasya, Karadeniz Bölgesi, Türkiye</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2634,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2287,7 +2644,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>· 020 3337 0146</t>
+          <t xml:space="preserve"> 020 3337 0146</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2297,7 +2654,18 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>⋅ Closes 10 pm</t>
+          <t xml:space="preserve"> Closes 10 pm</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>40.788106</v>
+      </c>
+      <c r="M36" t="n">
+        <v>35.0218961</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Null, Saray, Hamamözü, Amasya, Karadeniz Bölgesi, Türkiye</t>
         </is>
       </c>
     </row>
@@ -2330,7 +2698,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2340,7 +2708,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>· 07958 306787</t>
+          <t xml:space="preserve"> 07958 306787</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2351,6 +2719,17 @@
       <c r="K37" t="inlineStr">
         <is>
           <t>nan</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>40.788106</v>
+      </c>
+      <c r="M37" t="n">
+        <v>35.0218961</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Null, Saray, Hamamözü, Amasya, Karadeniz Bölgesi, Türkiye</t>
         </is>
       </c>
     </row>
@@ -2383,7 +2762,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2403,7 +2782,18 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>⋅ Closes 10 pm</t>
+          <t xml:space="preserve"> Closes 10 pm</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>40.788106</v>
+      </c>
+      <c r="M38" t="n">
+        <v>35.0218961</v>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Null, Saray, Hamamözü, Amasya, Karadeniz Bölgesi, Türkiye</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2826,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2456,7 +2846,18 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>⋅ Closes 10:30 pm</t>
+          <t xml:space="preserve"> Closes 10:30 pm</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>40.788106</v>
+      </c>
+      <c r="M39" t="n">
+        <v>35.0218961</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Null, Saray, Hamamözü, Amasya, Karadeniz Bölgesi, Türkiye</t>
         </is>
       </c>
     </row>
@@ -2485,7 +2886,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2505,7 +2906,18 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>⋅ Closes 11 pm</t>
+          <t xml:space="preserve"> Closes 11 pm</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>40.788106</v>
+      </c>
+      <c r="M40" t="n">
+        <v>35.0218961</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Null, Saray, Hamamözü, Amasya, Karadeniz Bölgesi, Türkiye</t>
         </is>
       </c>
     </row>
@@ -2538,7 +2950,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2548,7 +2960,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>· 020 7428 9211</t>
+          <t xml:space="preserve"> 020 7428 9211</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2558,7 +2970,18 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>⋅ Closes 6 pm</t>
+          <t xml:space="preserve"> Closes 6 pm</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>40.788106</v>
+      </c>
+      <c r="M41" t="n">
+        <v>35.0218961</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Null, Saray, Hamamözü, Amasya, Karadeniz Bölgesi, Türkiye</t>
         </is>
       </c>
     </row>
@@ -2597,7 +3020,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>· 07933 418888</t>
+          <t xml:space="preserve"> 07933 418888</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2607,9 +3030,12 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>⋅ Closes 7 pm</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> Closes 7 pm</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2650,7 +3076,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>· 020 8137 0868</t>
+          <t xml:space="preserve"> 020 8137 0868</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2660,7 +3086,18 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>⋅ Closes 10 pm</t>
+          <t xml:space="preserve"> Closes 10 pm</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>51.5001044</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-0.2380089</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>244, Goldhawk Road, Shepherd's Bush, London Borough of Hammersmith and Fulham, London, Greater London, England, W12 8ET, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -2713,7 +3150,18 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>⋅ Closes 1 am</t>
+          <t xml:space="preserve"> Closes 1 am</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>51.5370649</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.0358712</v>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Boba Blast Bubble Tea, 30, Plashet Grove, Upton Park, London Borough of Newham, London, Greater London, England, E6 1AE, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -2756,7 +3204,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>· 020 7240 9131</t>
+          <t xml:space="preserve"> 020 7240 9131</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2766,7 +3214,18 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>⋅ Closes 9 pm</t>
+          <t xml:space="preserve"> Closes 9 pm</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>51.397942</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-0.2321119</v>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>7, Kingsway, West Barnes, London Borough of Merton, London, Greater London, England, KT3 6JA, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -2805,7 +3264,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>· 07490 036323</t>
+          <t xml:space="preserve"> 07490 036323</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2815,9 +3274,12 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>⋅ Closes 7 pm</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> Closes 7 pm</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2854,7 +3316,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>· 020 7287 5971</t>
+          <t xml:space="preserve"> 020 7287 5971</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2864,7 +3326,18 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>⋅ Closes 10 pm</t>
+          <t xml:space="preserve"> Closes 10 pm</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>34.220389</v>
+      </c>
+      <c r="M47" t="n">
+        <v>70.38003139999999</v>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>ننگرهار ولايت, افغانستان</t>
         </is>
       </c>
     </row>
@@ -2907,7 +3380,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>· 07311 985813</t>
+          <t xml:space="preserve"> 07311 985813</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2917,7 +3390,18 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>⋅ Closes 7 pm</t>
+          <t xml:space="preserve"> Closes 7 pm</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>50.3290749</v>
+      </c>
+      <c r="M48" t="n">
+        <v>7.3135216</v>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Welling, Maifeld, Landkreis Mayen-Koblenz, Rheinland-Pfalz, Deutschland</t>
         </is>
       </c>
     </row>
@@ -2970,7 +3454,18 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>⋅ Closes 11:30 pm</t>
+          <t xml:space="preserve"> Closes 11:30 pm</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>51.5187404</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-0.0717183</v>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Brick Lane Coffee Shop, 47, Brick Lane, Spitalfields, Whitechapel, London Borough of Tower Hamlets, London, Greater London, England, E1 6PU, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -3013,7 +3508,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>· 07719 220491</t>
+          <t xml:space="preserve"> 07719 220491</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -3023,7 +3518,18 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>⋅ Closes 10 pm</t>
+          <t xml:space="preserve"> Closes 10 pm</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>51.5116686</v>
+      </c>
+      <c r="M50" t="n">
+        <v>-0.1302536</v>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Mr Kong, 21, Lisle Street, Chinatown, City of Westminster, Greater London, England, WC2H 7BE, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -3062,7 +3568,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>· 07305 078876</t>
+          <t xml:space="preserve"> 07305 078876</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -3072,7 +3578,18 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>⋅ Closes 11:30 pm</t>
+          <t xml:space="preserve"> Closes 11:30 pm</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>51.5582734</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.07116690000000001</v>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Ilford, Greater London, England, IG1 1DL, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -3115,7 +3632,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>· 020 3581 1059</t>
+          <t xml:space="preserve"> 020 3581 1059</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -3125,7 +3642,18 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>⋅ Closes 10 pm</t>
+          <t xml:space="preserve"> Closes 10 pm</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>-35.4047048</v>
+      </c>
+      <c r="M52" t="n">
+        <v>149.1154203</v>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>3, Garrick Street, Fadden, District of Tuggeranong, Australian Capital Territory, 2904, Australia</t>
         </is>
       </c>
     </row>
@@ -3164,7 +3692,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>· 07311 811907</t>
+          <t xml:space="preserve"> 07311 811907</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -3174,7 +3702,18 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>⋅ Closes 10 pm</t>
+          <t xml:space="preserve"> Closes 10 pm</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>51.5176853</v>
+      </c>
+      <c r="M53" t="n">
+        <v>-0.1163358</v>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>University of the Arts London, 272, High Holborn, Hatton Garden, Holborn, London Borough of Camden, London, Greater London, England, WC1V 7EJ, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -3217,7 +3756,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>· 07539 483103</t>
+          <t xml:space="preserve"> 07539 483103</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -3227,9 +3766,12 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>⋅ Closes 10 pm</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> Closes 10 pm</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3266,7 +3808,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>· 07454 003374</t>
+          <t xml:space="preserve"> 07454 003374</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3276,7 +3818,18 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>⋅ Closes 9 pm</t>
+          <t xml:space="preserve"> Closes 9 pm</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>51.52069</v>
+      </c>
+      <c r="M55" t="n">
+        <v>-0.1391027</v>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>168, New Cavendish Street, Fitzrovia, London Borough of Camden, London, Greater London, England, W1W 6YX, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -3329,7 +3882,18 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>⋅ Closes 9:30 pm</t>
+          <t xml:space="preserve"> Closes 9:30 pm</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>51.4855392</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.0069268</v>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>224, Trafalgar Road, East Greenwich, Royal Borough of Greenwich, London, Greater London, England, SE10 9ER, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -3372,7 +3936,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>· 020 7734 1966</t>
+          <t xml:space="preserve"> 020 7734 1966</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3382,7 +3946,18 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>⋅ Closes 11 pm</t>
+          <t xml:space="preserve"> Closes 11 pm</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>51.511925</v>
+      </c>
+      <c r="M57" t="n">
+        <v>-0.129142</v>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>24A, Newport Court, Chinatown, London, Greater London, England, WC2H 7JP, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -3431,7 +4006,18 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>⋅ Closes 9 pm</t>
+          <t xml:space="preserve"> Closes 9 pm</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>51.4770582</v>
+      </c>
+      <c r="M58" t="n">
+        <v>-0.1463935</v>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>157, Battersea Park Road, Nine Elms, London Borough of Wandsworth, London, Greater London, England, SW8 4BU, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -3484,7 +4070,18 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>⋅ Closes 2 am</t>
+          <t xml:space="preserve"> Closes 2 am</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>51.5339654</v>
+      </c>
+      <c r="M59" t="n">
+        <v>-0.0274807</v>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>617, Roman Road, Old Ford, Bow, London Borough of Tower Hamlets, London, Greater London, England, E3 2RZ, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -3537,7 +4134,18 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>⋅ Closes 2 am</t>
+          <t xml:space="preserve"> Closes 2 am</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>51.5309837</v>
+      </c>
+      <c r="M60" t="n">
+        <v>-0.0705081</v>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Hackney Road, Bethnal Green, London Borough of Tower Hamlets, London, Greater London, England, E2 7DY, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -3580,7 +4188,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>· 020 8740 1757</t>
+          <t xml:space="preserve"> 020 8740 1757</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3590,9 +4198,12 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>⋅ Closes 10 pm</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> Closes 10 pm</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3629,7 +4240,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>· 07933 418888</t>
+          <t xml:space="preserve"> 07933 418888</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3639,9 +4250,12 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>⋅ Closes 7 pm</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> Closes 7 pm</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3682,7 +4296,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>· 020 8137 0868</t>
+          <t xml:space="preserve"> 020 8137 0868</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3692,7 +4306,18 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>⋅ Closes 10 pm</t>
+          <t xml:space="preserve"> Closes 10 pm</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>51.5001044</v>
+      </c>
+      <c r="M63" t="n">
+        <v>-0.2380089</v>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>244, Goldhawk Road, Shepherd's Bush, London Borough of Hammersmith and Fulham, London, Greater London, England, W12 8ET, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -3745,7 +4370,18 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>⋅ Closes 1 am</t>
+          <t xml:space="preserve"> Closes 1 am</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>51.5370649</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.0358712</v>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Boba Blast Bubble Tea, 30, Plashet Grove, Upton Park, London Borough of Newham, London, Greater London, England, E6 1AE, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -3788,7 +4424,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>· 020 7240 9131</t>
+          <t xml:space="preserve"> 020 7240 9131</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3798,7 +4434,18 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>⋅ Closes 9 pm</t>
+          <t xml:space="preserve"> Closes 9 pm</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>51.397942</v>
+      </c>
+      <c r="M65" t="n">
+        <v>-0.2321119</v>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>7, Kingsway, West Barnes, London Borough of Merton, London, Greater London, England, KT3 6JA, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -3837,7 +4484,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>· 07490 036323</t>
+          <t xml:space="preserve"> 07490 036323</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3847,9 +4494,12 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>⋅ Closes 7 pm</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> Closes 7 pm</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3886,7 +4536,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>· 020 7287 5971</t>
+          <t xml:space="preserve"> 020 7287 5971</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3896,7 +4546,18 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>⋅ Closes 10 pm</t>
+          <t xml:space="preserve"> Closes 10 pm</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>34.220389</v>
+      </c>
+      <c r="M67" t="n">
+        <v>70.38003139999999</v>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>ننگرهار ولايت, افغانستان</t>
         </is>
       </c>
     </row>
@@ -3939,7 +4600,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>· 07311 985813</t>
+          <t xml:space="preserve"> 07311 985813</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3949,7 +4610,18 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>⋅ Closes 7 pm</t>
+          <t xml:space="preserve"> Closes 7 pm</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>50.3290749</v>
+      </c>
+      <c r="M68" t="n">
+        <v>7.3135216</v>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>Welling, Maifeld, Landkreis Mayen-Koblenz, Rheinland-Pfalz, Deutschland</t>
         </is>
       </c>
     </row>
@@ -4002,7 +4674,18 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>⋅ Closes 11:30 pm</t>
+          <t xml:space="preserve"> Closes 11:30 pm</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>51.5187404</v>
+      </c>
+      <c r="M69" t="n">
+        <v>-0.0717183</v>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>Brick Lane Coffee Shop, 47, Brick Lane, Spitalfields, Whitechapel, London Borough of Tower Hamlets, London, Greater London, England, E1 6PU, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -4045,7 +4728,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>· 07719 220491</t>
+          <t xml:space="preserve"> 07719 220491</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -4055,7 +4738,18 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>⋅ Closes 10 pm</t>
+          <t xml:space="preserve"> Closes 10 pm</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>51.5116686</v>
+      </c>
+      <c r="M70" t="n">
+        <v>-0.1302536</v>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>Mr Kong, 21, Lisle Street, Chinatown, City of Westminster, Greater London, England, WC2H 7BE, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -4094,7 +4788,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>· 07305 078876</t>
+          <t xml:space="preserve"> 07305 078876</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -4104,7 +4798,18 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>⋅ Closes 11:30 pm</t>
+          <t xml:space="preserve"> Closes 11:30 pm</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>51.5582734</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.07116690000000001</v>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>Ilford, Greater London, England, IG1 1DL, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -4147,7 +4852,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>· 020 3581 1059</t>
+          <t xml:space="preserve"> 020 3581 1059</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -4157,7 +4862,18 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>⋅ Closes 10 pm</t>
+          <t xml:space="preserve"> Closes 10 pm</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>-35.4047048</v>
+      </c>
+      <c r="M72" t="n">
+        <v>149.1154203</v>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>3, Garrick Street, Fadden, District of Tuggeranong, Australian Capital Territory, 2904, Australia</t>
         </is>
       </c>
     </row>
@@ -4196,7 +4912,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>· 07311 811907</t>
+          <t xml:space="preserve"> 07311 811907</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -4206,7 +4922,18 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>⋅ Closes 10 pm</t>
+          <t xml:space="preserve"> Closes 10 pm</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>51.5176853</v>
+      </c>
+      <c r="M73" t="n">
+        <v>-0.1163358</v>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>University of the Arts London, 272, High Holborn, Hatton Garden, Holborn, London Borough of Camden, London, Greater London, England, WC1V 7EJ, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -4249,7 +4976,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>· 07539 483103</t>
+          <t xml:space="preserve"> 07539 483103</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -4259,9 +4986,12 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>⋅ Closes 10 pm</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> Closes 10 pm</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4298,7 +5028,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>· 07454 003374</t>
+          <t xml:space="preserve"> 07454 003374</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -4308,7 +5038,18 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>⋅ Closes 9 pm</t>
+          <t xml:space="preserve"> Closes 9 pm</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>51.52069</v>
+      </c>
+      <c r="M75" t="n">
+        <v>-0.1391027</v>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>168, New Cavendish Street, Fitzrovia, London Borough of Camden, London, Greater London, England, W1W 6YX, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -4361,7 +5102,18 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>⋅ Closes 9:30 pm</t>
+          <t xml:space="preserve"> Closes 9:30 pm</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>51.4855392</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.0069268</v>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>224, Trafalgar Road, East Greenwich, Royal Borough of Greenwich, London, Greater London, England, SE10 9ER, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -4404,7 +5156,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>· 020 7734 1966</t>
+          <t xml:space="preserve"> 020 7734 1966</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4414,7 +5166,18 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>⋅ Closes 11 pm</t>
+          <t xml:space="preserve"> Closes 11 pm</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>51.511925</v>
+      </c>
+      <c r="M77" t="n">
+        <v>-0.129142</v>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>24A, Newport Court, Chinatown, London, Greater London, England, WC2H 7PQ, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -4463,7 +5226,18 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>⋅ Closes 9 pm</t>
+          <t xml:space="preserve"> Closes 9 pm</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>51.4770582</v>
+      </c>
+      <c r="M78" t="n">
+        <v>-0.1463935</v>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>157, Battersea Park Road, Nine Elms, London Borough of Wandsworth, London, Greater London, England, SW8 4BU, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -4516,7 +5290,18 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>⋅ Closes 2 am</t>
+          <t xml:space="preserve"> Closes 2 am</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>51.5339654</v>
+      </c>
+      <c r="M79" t="n">
+        <v>-0.0274807</v>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>617, Roman Road, Old Ford, Bow, London Borough of Tower Hamlets, London, Greater London, England, E3 2RZ, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -4569,7 +5354,18 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>⋅ Closes 2 am</t>
+          <t xml:space="preserve"> Closes 2 am</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>51.5309837</v>
+      </c>
+      <c r="M80" t="n">
+        <v>-0.0705081</v>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>Hackney Road, Bethnal Green, London Borough of Tower Hamlets, London, Greater London, England, E2 7DY, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -4612,7 +5408,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>· 020 8740 1757</t>
+          <t xml:space="preserve"> 020 8740 1757</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4622,9 +5418,12 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>⋅ Closes 10 pm</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> Closes 10 pm</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4665,7 +5464,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>· 020 3659 2395</t>
+          <t xml:space="preserve"> 020 3659 2395</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4675,9 +5474,12 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>⋅ Closes 7 pm</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> Closes 7 pm</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4718,7 +5520,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>· 07513 341008</t>
+          <t xml:space="preserve"> 07513 341008</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4728,7 +5530,18 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>⋅ Closes 7 pm</t>
+          <t xml:space="preserve"> Closes 7 pm</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>17.8294737</v>
+      </c>
+      <c r="M83" t="n">
+        <v>-77.26616439999999</v>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>Water Lane, Clarendon, Middlesex County, Jamaica</t>
         </is>
       </c>
     </row>
@@ -4781,7 +5594,18 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>⋅ Closes 10 pm</t>
+          <t xml:space="preserve"> Closes 10 pm</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>51.5155822</v>
+      </c>
+      <c r="M84" t="n">
+        <v>-0.1277833</v>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>St Giles High Street, St Giles, Bloomsbury, London Borough of Camden, London, Greater London, England, WC2H 8DA, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -4824,7 +5648,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>· 020 7734 4535</t>
+          <t xml:space="preserve"> 020 7734 4535</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4835,6 +5659,17 @@
       <c r="K85" t="inlineStr">
         <is>
           <t>nan</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>51.5112211</v>
+      </c>
+      <c r="M85" t="n">
+        <v>-0.1318819</v>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>bubblewrap waffle, 24, Wardour Street, Chinatown, London, Greater London, England, W1D 6QJ, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -4877,7 +5712,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>· 020 3935 9645</t>
+          <t xml:space="preserve"> 020 3935 9645</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4887,7 +5722,18 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>⋅ Closes 8 pm</t>
+          <t xml:space="preserve"> Closes 8 pm</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>51.5466835</v>
+      </c>
+      <c r="M86" t="n">
+        <v>-0.0550322</v>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>Mare Street, Hackney, London Borough of Hackney, London, Greater London, England, E8 1HA, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -4926,7 +5772,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>· 020 7837 2112</t>
+          <t xml:space="preserve"> 020 7837 2112</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4936,7 +5782,18 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>⋅ Closes 10 pm</t>
+          <t xml:space="preserve"> Closes 10 pm</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>51.5281329</v>
+      </c>
+      <c r="M87" t="n">
+        <v>-0.1190716</v>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>Grays Inn Road, King's Cross, London Borough of Camden, London, Greater London, England, WC1X 8DP, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -4979,7 +5836,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>· 020 3649 0688</t>
+          <t xml:space="preserve"> 020 3649 0688</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4989,7 +5846,18 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>⋅ Closes 9 pm</t>
+          <t xml:space="preserve"> Closes 9 pm</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>51.4816856</v>
+      </c>
+      <c r="M88" t="n">
+        <v>-0.010353</v>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>47, Greenwich Church Street, Greenwich Town Centre, Royal Borough of Greenwich, London, Greater London, England, SE10 9BL, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -5032,7 +5900,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>· 07760 404466</t>
+          <t xml:space="preserve"> 07760 404466</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -5042,7 +5910,18 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>⋅ Closes 10 pm</t>
+          <t xml:space="preserve"> Closes 10 pm</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>51.5135236</v>
+      </c>
+      <c r="M89" t="n">
+        <v>-0.130376</v>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>Old Compton Street, Soho, City of Westminster, Greater London, England, W1D 5DD, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -5085,7 +5964,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>· 020 7209 5041</t>
+          <t xml:space="preserve"> 020 7209 5041</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -5095,7 +5974,18 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>⋅ Closes 10 pm</t>
+          <t xml:space="preserve"> Closes 10 pm</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>51.534481</v>
+      </c>
+      <c r="M90" t="n">
+        <v>-0.1054176</v>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>28, Upper Street, Angel, Islington, London Borough of Islington, London, Greater London, England, N1 0PQ, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -5144,7 +6034,18 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>⋅ Closes 8 pm</t>
+          <t xml:space="preserve"> Closes 8 pm</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>51.5302832</v>
+      </c>
+      <c r="M91" t="n">
+        <v>-0.1856602</v>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>249, Elgin Avenue, Maida Vale, London, Greater London, England, W9 1JU, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -5187,7 +6088,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>· 020 7723 7177</t>
+          <t xml:space="preserve"> 020 7723 7177</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -5197,7 +6098,18 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>⋅ Closes 6 pm</t>
+          <t xml:space="preserve"> Closes 6 pm</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>51.5186518</v>
+      </c>
+      <c r="M92" t="n">
+        <v>-0.1677992</v>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>Hadson, 220, Edgware Road, Paddington, London, Greater London, England, W2 1DH, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -5246,9 +6158,12 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>⋅ Closes 9 pm</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> Closes 9 pm</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -5289,7 +6204,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>· 020 3793 1988</t>
+          <t xml:space="preserve"> 020 3793 1988</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -5299,7 +6214,18 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>⋅ Closes 10 pm</t>
+          <t xml:space="preserve"> Closes 10 pm</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>51.3893946</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.07258240000000001</v>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>18, Queensway, Petts Wood, Orpington, London, Greater London, England, BR5 1DF, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -5338,7 +6264,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>· 020 4549 4999</t>
+          <t xml:space="preserve"> 020 4549 4999</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -5348,9 +6274,12 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>⋅ Closes 7 pm</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> Closes 7 pm</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -5387,7 +6316,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>· 020 7688 9838</t>
+          <t xml:space="preserve"> 020 7688 9838</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -5397,9 +6326,12 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>⋅ Closes 10 pm</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> Closes 10 pm</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -5440,7 +6372,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>· 020 7727 9771</t>
+          <t xml:space="preserve"> 020 7727 9771</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5451,6 +6383,17 @@
       <c r="K97" t="inlineStr">
         <is>
           <t>nan</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>51.5106016</v>
+      </c>
+      <c r="M97" t="n">
+        <v>-0.1975837</v>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>45, Pembridge Road, Notting Hill, Royal Borough of Kensington and Chelsea, London, Greater London, England, W11 3HN, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -5493,7 +6436,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>· 020 7379 6666</t>
+          <t xml:space="preserve"> 020 7379 6666</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5503,7 +6446,18 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>⋅ Closes 11 pm</t>
+          <t xml:space="preserve"> Closes 11 pm</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>51.5129848</v>
+      </c>
+      <c r="M98" t="n">
+        <v>-0.1287193</v>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>82, Charing Cross Road, Seven Dials, Bloomsbury, City of Westminster, Greater London, England, WC2H 8PA, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -5546,7 +6500,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>· 07549 513555</t>
+          <t xml:space="preserve"> 07549 513555</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5557,6 +6511,17 @@
       <c r="K99" t="inlineStr">
         <is>
           <t>nan</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>51.57071</v>
+      </c>
+      <c r="M99" t="n">
+        <v>-0.3517662</v>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>59, Shaftesbury Avenue, Harrow on the Hill, Sudbury Hill, London Borough of Harrow, London, Greater London, England, HA2 0PL, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -5599,7 +6564,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>· 07845 774798</t>
+          <t xml:space="preserve"> 07845 774798</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5610,6 +6575,17 @@
       <c r="K100" t="inlineStr">
         <is>
           <t>nan</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>51.4980113</v>
+      </c>
+      <c r="M100" t="n">
+        <v>-0.165971</v>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>Lauren B Couture, 61, Beauchamp Place, Hans Town, Chelsea, Royal Borough of Kensington and Chelsea, London, Greater London, England, SW3 1NQ, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -5648,7 +6624,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>· 020 7434 2028</t>
+          <t xml:space="preserve"> 020 7434 2028</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5658,9 +6634,12 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>⋅ Closes 11 pm</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> Closes 11 pm</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -5691,7 +6670,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5701,7 +6680,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>· 020 7388 6704</t>
+          <t xml:space="preserve"> 020 7388 6704</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5712,6 +6691,17 @@
       <c r="K102" t="inlineStr">
         <is>
           <t>nan</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>40.788106</v>
+      </c>
+      <c r="M102" t="n">
+        <v>35.0218961</v>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>Null, Saray, Hamamözü, Amasya, Karadeniz Bölgesi, Türkiye</t>
         </is>
       </c>
     </row>
@@ -5744,7 +6734,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>· 0330 043 4006</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5764,7 +6754,18 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>⋅ Closes 6 pm</t>
+          <t xml:space="preserve"> Closes 6 pm</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>40.788106</v>
+      </c>
+      <c r="M103" t="n">
+        <v>35.0218961</v>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>Null, Saray, Hamamözü, Amasya, Karadeniz Bölgesi, Türkiye</t>
         </is>
       </c>
     </row>
@@ -5807,7 +6808,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>· 020 8555 4090</t>
+          <t xml:space="preserve"> 020 8555 4090</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5817,7 +6818,18 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>⋅ Closes 9 pm</t>
+          <t xml:space="preserve"> Closes 9 pm</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>51.5434467</v>
+      </c>
+      <c r="M104" t="n">
+        <v>-0.0066989</v>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>Krispy Kreme, Montfichet Road, Stratford New Town, Stratford, London Borough of Newham, London, Greater London, England, E20 1ES, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -5870,9 +6882,12 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>⋅ Closes 8 pm</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> Closes 8 pm</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -5909,7 +6924,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>· 020 3343 5998</t>
+          <t xml:space="preserve"> 020 3343 5998</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5919,7 +6934,18 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>⋅ Closes 8 pm</t>
+          <t xml:space="preserve"> Closes 8 pm</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>51.4492012</v>
+      </c>
+      <c r="M106" t="n">
+        <v>-0.1999547</v>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>232, Merton Road, Southfields, London Borough of Wandsworth, London, Greater London, England, SW18 5JQ, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -5964,7 +6990,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>· 020 3417 2202</t>
+          <t xml:space="preserve"> 020 3417 2202</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5974,7 +7000,18 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>⋅ Closes 9 pm</t>
+          <t xml:space="preserve"> Closes 9 pm</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>42.109254</v>
+      </c>
+      <c r="M107" t="n">
+        <v>-72.5528503</v>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>122, Middlesex Street, Springfield, Hampden County, Massachusetts, 01109, United States</t>
         </is>
       </c>
     </row>
@@ -6017,7 +7054,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>· 020 3161 0177</t>
+          <t xml:space="preserve"> 020 3161 0177</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -6027,9 +7064,12 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>⋅ Closes 10:30 pm</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> Closes 10:30 pm</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -6066,7 +7106,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>· 07940 060071</t>
+          <t xml:space="preserve"> 07940 060071</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -6076,7 +7116,18 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>⋅ Closes 12 am</t>
+          <t xml:space="preserve"> Closes 12 am</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>53.5906995</v>
+      </c>
+      <c r="M109" t="n">
+        <v>-1.6462573</v>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>117, Commercial Road, Denby Dale, Skelmanthorpe, Kirklees, West Yorkshire, England, HD8 9DX, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -6119,7 +7170,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>· 020 7258 7488</t>
+          <t xml:space="preserve"> 020 7258 7488</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -6129,7 +7180,18 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>⋅ Closes 9 pm</t>
+          <t xml:space="preserve"> Closes 9 pm</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>51.5159194</v>
+      </c>
+      <c r="M110" t="n">
+        <v>-0.1750057</v>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>Praed Street, Paddington, London, Greater London, England, W2 1HU, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -6172,17 +7234,28 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>· 020 8855 5179</t>
+          <t xml:space="preserve"> 020 8855 5179</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>⋅ Opens 5:30 pm</t>
+          <t xml:space="preserve"> Opens 5:30 pm</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>nan</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>51.4865084</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0.09671929999999999</v>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>Plumstead High Street, Plumstead, Royal Borough of Greenwich, London, Greater London, England, SE18 1JL, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -6225,7 +7298,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>· 020 3856 5880</t>
+          <t xml:space="preserve"> 020 3856 5880</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -6235,7 +7308,18 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>⋅ Closes 4 pm</t>
+          <t xml:space="preserve"> Closes 4 pm</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>51.5172916</v>
+      </c>
+      <c r="M112" t="n">
+        <v>-0.1385675</v>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>5, Margaret Street, East Marylebone, Fitzrovia, Camden Town, City of Westminster, Greater London, England, W1W 8SZ, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -6278,7 +7362,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>· 020 3489 9947</t>
+          <t xml:space="preserve"> 020 3489 9947</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -6288,7 +7372,18 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>⋅ Closes 11 pm</t>
+          <t xml:space="preserve"> Closes 11 pm</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>-33.7078413</v>
+      </c>
+      <c r="M113" t="n">
+        <v>151.2996181</v>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>4, Lisle Street, Narrabeen, Northern Beaches, Sydney, Northern Beaches Council, New South Wales, 2101, Australia</t>
         </is>
       </c>
     </row>
@@ -6327,7 +7422,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>· 07436 781588</t>
+          <t xml:space="preserve"> 07436 781588</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -6337,9 +7432,12 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>⋅ Closes 6:30 pm</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> Closes 6:30 pm</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -6380,7 +7478,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>· 020 7249 8797</t>
+          <t xml:space="preserve"> 020 7249 8797</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -6390,7 +7488,18 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>⋅ Closes 10 pm</t>
+          <t xml:space="preserve"> Closes 10 pm</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>51.5462512</v>
+      </c>
+      <c r="M115" t="n">
+        <v>-0.0787279</v>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>Balls Pond Road, De Beauvoir Town, Dalston, London Borough of Hackney, London, Greater London, England, N1 4BW, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -6433,7 +7542,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>· 07936 739636</t>
+          <t xml:space="preserve"> 07936 739636</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -6443,9 +7552,12 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>⋅ Closes 7:30 pm</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> Closes 7:30 pm</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -6486,7 +7598,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>· 07470 034356</t>
+          <t xml:space="preserve"> 07470 034356</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -6496,7 +7608,18 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>⋅ Closes 9:30 pm</t>
+          <t xml:space="preserve"> Closes 9:30 pm</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>51.4888531</v>
+      </c>
+      <c r="M117" t="n">
+        <v>-0.09579849999999999</v>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>231, Walworth Road, Browning Estate, Walworth, London Borough of Southwark, London, Greater London, England, SE17 1RL, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -6539,7 +7662,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>· 020 7584 1171</t>
+          <t xml:space="preserve"> 020 7584 1171</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6549,7 +7672,18 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>⋅ Closes 11 pm</t>
+          <t xml:space="preserve"> Closes 11 pm</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>51.4946154</v>
+      </c>
+      <c r="M118" t="n">
+        <v>-0.1744778</v>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>Bubbleology, 23, Cromwell Place, The Boltons, Brompton, Royal Borough of Kensington and Chelsea, London, Greater London, England, SW7 2LD, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -6598,7 +7732,18 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>⋅ Closes 10 pm</t>
+          <t xml:space="preserve"> Closes 10 pm</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>51.5103064</v>
+      </c>
+      <c r="M119" t="n">
+        <v>-0.08288810000000001</v>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>Banca March, 30-40, Eastcheap, Monument, City of London, Greater London, England, EC3M 1JA, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -6641,7 +7786,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>· 020 7062 7258</t>
+          <t xml:space="preserve"> 020 7062 7258</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6651,9 +7796,12 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>⋅ Closes 9 pm</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> Closes 9 pm</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -6694,7 +7842,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>· 07378 897880</t>
+          <t xml:space="preserve"> 07378 897880</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6704,7 +7852,18 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>⋅ Closes 10 pm</t>
+          <t xml:space="preserve"> Closes 10 pm</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>51.5458914</v>
+      </c>
+      <c r="M121" t="n">
+        <v>-0.0758808</v>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>T4 Tea For U, 535, Kingsland Road, De Beauvoir Town, Dalston, London Borough of Hackney, London, Greater London, England, E8 3DE, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -6747,17 +7906,28 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>· 07599 118567</t>
+          <t xml:space="preserve"> 07599 118567</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>⋅ Opens 3 pm</t>
+          <t xml:space="preserve"> Opens 3 pm</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>nan</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>50.3290749</v>
+      </c>
+      <c r="M122" t="n">
+        <v>7.3135216</v>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>Welling, Maifeld, Landkreis Mayen-Koblenz, Rheinland-Pfalz, Deutschland</t>
         </is>
       </c>
     </row>
@@ -6800,7 +7970,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>· 07534 666679</t>
+          <t xml:space="preserve"> 07534 666679</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6810,9 +7980,12 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>⋅ Closes 9 pm</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> Closes 9 pm</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -6853,7 +8026,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>· 020 8555 5072</t>
+          <t xml:space="preserve"> 020 8555 5072</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6863,9 +8036,12 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>⋅ Closes 9 pm</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> Closes 9 pm</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -6902,7 +8078,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>· 07453 811144</t>
+          <t xml:space="preserve"> 07453 811144</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6912,7 +8088,18 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>⋅ Closes 8 pm</t>
+          <t xml:space="preserve"> Closes 8 pm</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>51.5400771</v>
+      </c>
+      <c r="M125" t="n">
+        <v>-0.1430492</v>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>BOXPARK Camden, 192-198, Camden High Street, Chalk Farm, London Borough of Camden, London, Greater London, England, NW1 8QP, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -6955,7 +8142,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>· 07833 212625</t>
+          <t xml:space="preserve"> 07833 212625</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6965,7 +8152,18 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>⋅ Closes 11:30 pm</t>
+          <t xml:space="preserve"> Closes 11:30 pm</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>40.9584417</v>
+      </c>
+      <c r="M126" t="n">
+        <v>-72.77824440000001</v>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>28, Harper Road, Town of Riverhead, Suffolk County, New York, 11933, United States</t>
         </is>
       </c>
     </row>
@@ -7004,7 +8202,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>· 020 7323 0033</t>
+          <t xml:space="preserve"> 020 7323 0033</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -7014,7 +8212,18 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>⋅ Closes 10 pm</t>
+          <t xml:space="preserve"> Closes 10 pm</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>51.5185812</v>
+      </c>
+      <c r="M127" t="n">
+        <v>-0.1252748</v>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>Great Russell Street, St Giles, Bloomsbury, London Borough of Camden, London, Greater London, England, WC1B 3BE, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -7053,7 +8262,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>· 07305 078876</t>
+          <t xml:space="preserve"> 07305 078876</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -7063,7 +8272,18 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>⋅ Closes 11:30 pm</t>
+          <t xml:space="preserve"> Closes 11:30 pm</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>51.5144641</v>
+      </c>
+      <c r="M128" t="n">
+        <v>-0.0539533</v>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>Nowrin Stores, 349, Commercial Road, St. George in the East, Shadwell, London Borough of Tower Hamlets, London, Greater London, England, E1 2PS, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -7106,7 +8326,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>· 07498 211206</t>
+          <t xml:space="preserve"> 07498 211206</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -7116,7 +8336,18 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>⋅ Closes 2 am</t>
+          <t xml:space="preserve"> Closes 2 am</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>51.517316</v>
+      </c>
+      <c r="M129" t="n">
+        <v>-0.0630351</v>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>Barakaat, 101, Fieldgate Street, St. George in the East, Whitechapel, London Borough of Tower Hamlets, London, Greater London, England, E1 1JU, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -7159,7 +8390,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>· 07361 533266</t>
+          <t xml:space="preserve"> 07361 533266</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -7169,7 +8400,18 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>⋅ Closes 8:30 pm</t>
+          <t xml:space="preserve"> Closes 8:30 pm</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>51.5376473</v>
+      </c>
+      <c r="M130" t="n">
+        <v>-0.1454176</v>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>Mooboo, 84, Parkway, Chalk Farm, London Borough of Camden, London, Greater London, England, NW1 7AN, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -7218,7 +8460,18 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>⋅ Closes 9:30 pm</t>
+          <t xml:space="preserve"> Closes 9:30 pm</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>51.5009463</v>
+      </c>
+      <c r="M131" t="n">
+        <v>-0.1121847</v>
+      </c>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>29, Lower Marsh, South Bank, Waterloo, London Borough of Lambeth, London, Greater London, England, SE1 7RG, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -7271,7 +8524,18 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>⋅ Closes 10:30 pm</t>
+          <t xml:space="preserve"> Closes 10:30 pm</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>51.4270763</v>
+      </c>
+      <c r="M132" t="n">
+        <v>-0.1686449</v>
+      </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>85, Tooting High Street, Tooting Graveney, Furzedown, London Borough of Wandsworth, London, Greater London, England, SW17 0SU, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -7324,7 +8588,18 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>⋅ Closes 11 pm</t>
+          <t xml:space="preserve"> Closes 11 pm</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>51.511322</v>
+      </c>
+      <c r="M133" t="n">
+        <v>-0.1336986</v>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>Lyric Theatre, 65, Shaftesbury Avenue, St Giles, Bloomsbury, London, Greater London, England, W1D 7ES, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -7377,7 +8652,18 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>⋅ Closes 11 pm</t>
+          <t xml:space="preserve"> Closes 11 pm</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>51.5117342</v>
+      </c>
+      <c r="M134" t="n">
+        <v>-0.1299987</v>
+      </c>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>Little Wooden Hut, 25, Lisle Street, Chinatown, London, Greater London, England, WC2H 7BE, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -7416,7 +8702,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>· 07540 383927</t>
+          <t xml:space="preserve"> 07540 383927</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -7426,9 +8712,12 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>⋅ Closes 9 pm</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> Closes 9 pm</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -7469,7 +8758,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>· 020 7734 0415</t>
+          <t xml:space="preserve"> 020 7734 0415</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -7479,7 +8768,18 @@
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>⋅ Closes 11 pm</t>
+          <t xml:space="preserve"> Closes 11 pm</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>51.5120031</v>
+      </c>
+      <c r="M136" t="n">
+        <v>-0.1289472</v>
+      </c>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>TSUJIRI Matcha House, 33, Newport Court, Chinatown, City of Westminster, Greater London, England, WC2H 7PQ, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -7522,7 +8822,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>· 07721 755008</t>
+          <t xml:space="preserve"> 07721 755008</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -7532,7 +8832,18 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>⋅ Closes 7:45 pm</t>
+          <t xml:space="preserve"> Closes 7:45 pm</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>51.5568174</v>
+      </c>
+      <c r="M137" t="n">
+        <v>-0.2827893</v>
+      </c>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>Wembley Park Boulevard, London Borough of Brent, London, Greater London, England, HA9 0BU, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -7575,7 +8886,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>· 07910 809740</t>
+          <t xml:space="preserve"> 07910 809740</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7585,7 +8896,18 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>⋅ Closes 5 pm</t>
+          <t xml:space="preserve"> Closes 5 pm</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>51.5055079</v>
+      </c>
+      <c r="M138" t="n">
+        <v>-0.0901805</v>
+      </c>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>Bedale Street, Borough Market, The Borough, London Borough of Southwark, London, Greater London, England, SE1 9AL, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -7634,7 +8956,18 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>⋅ Closes 10 pm</t>
+          <t xml:space="preserve"> Closes 10 pm</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>51.512075</v>
+      </c>
+      <c r="M139" t="n">
+        <v>-0.1317982</v>
+      </c>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>Shaftesbury Avenue, St Giles, Bloomsbury, City of Westminster, Greater London, England, W1D 6NE, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -7677,7 +9010,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>· 020 7733 6742</t>
+          <t xml:space="preserve"> 020 7733 6742</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7687,7 +9020,18 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>⋅ Closes 10 pm</t>
+          <t xml:space="preserve"> Closes 10 pm</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>51.4650533</v>
+      </c>
+      <c r="M140" t="n">
+        <v>-0.1143413</v>
+      </c>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>T4 Tea For U, 410a, Brixton Road, Stockwell Park, Brixton, London Borough of Lambeth, London, Greater London, England, SW9 7AW, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -7730,7 +9074,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>· 07825 671757</t>
+          <t xml:space="preserve"> 07825 671757</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7740,9 +9084,12 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>⋅ Closes 11:30 pm</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> Closes 11:30 pm</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -7779,7 +9126,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>· 020 7482 5360</t>
+          <t xml:space="preserve"> 020 7482 5360</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7789,7 +9136,18 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>⋅ Closes 1 am</t>
+          <t xml:space="preserve"> Closes 1 am</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>51.5382308</v>
+      </c>
+      <c r="M142" t="n">
+        <v>-0.144583</v>
+      </c>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>44, Parkway, Chalk Farm, London Borough of Camden, London, Greater London, England, NW1 7AH, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -7832,7 +9190,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>· 020 7240 8240</t>
+          <t xml:space="preserve"> 020 7240 8240</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7842,7 +9200,18 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>⋅ Closes 8 pm</t>
+          <t xml:space="preserve"> Closes 8 pm</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>51.5112908</v>
+      </c>
+      <c r="M143" t="n">
+        <v>-0.1187683</v>
+      </c>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>T4 Tea For You, 137, Strand, St Clement Danes, Holborn, London, Greater London, England, WC2R 1HH, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -7885,7 +9254,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>· 020 7734 8040</t>
+          <t xml:space="preserve"> 020 7734 8040</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7895,7 +9264,18 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>⋅ Closes 8 pm</t>
+          <t xml:space="preserve"> Closes 8 pm</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>51.5081856</v>
+      </c>
+      <c r="M144" t="n">
+        <v>-0.1381409</v>
+      </c>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>Fortnum &amp; Mason, 181-184, Piccadilly, St. James's, Mayfair, London, Greater London, England, W1J 9ES, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -7938,7 +9318,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>· 07512 650719</t>
+          <t xml:space="preserve"> 07512 650719</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7949,6 +9329,17 @@
       <c r="K145" t="inlineStr">
         <is>
           <t>nan</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>51.2197332</v>
+      </c>
+      <c r="M145" t="n">
+        <v>-0.4493837</v>
+      </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>29, Leather Lane, Shere, Gomshall, Guildford, Surrey, England, GU5 9NB, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -8001,7 +9392,18 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>⋅ Closes 11 pm</t>
+          <t xml:space="preserve"> Closes 11 pm</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>51.5118758</v>
+      </c>
+      <c r="M146" t="n">
+        <v>-0.1289003</v>
+      </c>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>Kova Patisserie, 20A, Newport Court, Chinatown, London, Greater London, England, WC2H 7PQ, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -8045,12 +9447,23 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>⋅ Opens 12 pm Tue</t>
+          <t xml:space="preserve"> Opens 12 pm Tue</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>nan</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>51.5341268</v>
+      </c>
+      <c r="M147" t="n">
+        <v>-0.1384381</v>
+      </c>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>271, Eversholt Street, Fitzrovia, London Borough of Camden, London, Greater London, England, NW1 1BA, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -8103,7 +9516,18 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>⋅ Closes 9 pm</t>
+          <t xml:space="preserve"> Closes 9 pm</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>51.5126018</v>
+      </c>
+      <c r="M148" t="n">
+        <v>-0.1329064</v>
+      </c>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>Mr Ji Soho, 72, Old Compton Street, Soho, City of Westminster, Greater London, England, W1D 6HL, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -8156,7 +9580,18 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>⋅ Closes 10:45 pm</t>
+          <t xml:space="preserve"> Closes 10:45 pm</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>47.1845947</v>
+      </c>
+      <c r="M149" t="n">
+        <v>17.1870848</v>
+      </c>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>Boba, Celldömölki járás, Vas vármegye, Nyugat-Dunántúl, Dunántúl, 9542, Magyarország</t>
         </is>
       </c>
     </row>
@@ -8199,7 +9634,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>· 020 8749 3900</t>
+          <t xml:space="preserve"> 020 8749 3900</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -8210,6 +9645,17 @@
       <c r="K150" t="inlineStr">
         <is>
           <t>nan</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>48.8675638</v>
+      </c>
+      <c r="M150" t="n">
+        <v>2.3474832</v>
+      </c>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>Bubble Tea, Rue du Nil, Quartier de Bonne-Nouvelle, Paris 2e Arrondissement, Paris, Île-de-France, France métropolitaine, 75002, France</t>
         </is>
       </c>
     </row>
@@ -8252,7 +9698,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>· 020 7253 4210</t>
+          <t xml:space="preserve"> 020 7253 4210</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -8262,7 +9708,18 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>⋅ Closes 1 am</t>
+          <t xml:space="preserve"> Closes 1 am</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>51.5261009</v>
+      </c>
+      <c r="M151" t="n">
+        <v>-0.08653039999999999</v>
+      </c>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>221, Old Street, Shoreditch, London Borough of Hackney, London, Greater London, England, EC1V 9HE, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -8297,7 +9754,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>· 020 8244 7271</t>
+          <t xml:space="preserve"> 020 8244 7271</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -8307,7 +9764,18 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>⋅ Closes 10 pm</t>
+          <t xml:space="preserve"> Closes 10 pm</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>51.4865084</v>
+      </c>
+      <c r="M152" t="n">
+        <v>0.09671929999999999</v>
+      </c>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>Plumstead High Street, Plumstead, Royal Borough of Greenwich, London, Greater London, England, SE18 1JL, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -8346,7 +9814,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>· 020 8077 3217</t>
+          <t xml:space="preserve"> 020 8077 3217</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -8359,6 +9827,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -8405,7 +9876,18 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>⋅ Closes 5:30 pm</t>
+          <t xml:space="preserve"> Closes 5:30 pm</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>48.8675638</v>
+      </c>
+      <c r="M154" t="n">
+        <v>2.3474832</v>
+      </c>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>Bubble Tea, Rue du Nil, Quartier de Bonne-Nouvelle, Paris 2e Arrondissement, Paris, Île-de-France, France métropolitaine, 75002, France</t>
         </is>
       </c>
     </row>
@@ -8444,7 +9926,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>· 020 7592 9190</t>
+          <t xml:space="preserve"> 020 7592 9190</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -8455,6 +9937,17 @@
       <c r="K155" t="inlineStr">
         <is>
           <t>nan</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>51.4966646</v>
+      </c>
+      <c r="M155" t="n">
+        <v>-0.1358078</v>
+      </c>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>Cafe Victoria, 8A, Artillery Row, Westminster, Victoria, London, Greater London, England, SW1P 1RZ, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -8497,7 +9990,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>· 07472 302130</t>
+          <t xml:space="preserve"> 07472 302130</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -8508,6 +10001,17 @@
       <c r="K156" t="inlineStr">
         <is>
           <t>nan</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>51.5193862</v>
+      </c>
+      <c r="M156" t="n">
+        <v>-0.1352924</v>
+      </c>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>39, Goodge Street, St Giles, Fitzrovia, London Borough of Camden, London, Greater London, England, W1T 2PX, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -8556,7 +10060,18 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>⋅ Closes 10 pm</t>
+          <t xml:space="preserve"> Closes 10 pm</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>51.5479857</v>
+      </c>
+      <c r="M157" t="n">
+        <v>-0.1414914</v>
+      </c>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>Yumi, 235, Kentish Town Road, Kentish Town, London Borough of Camden, London, Greater London, England, NW5 2DY, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -8609,7 +10124,18 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>⋅ Closes 10 pm</t>
+          <t xml:space="preserve"> Closes 10 pm</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>43.44661</v>
+      </c>
+      <c r="M158" t="n">
+        <v>-96.836034</v>
+      </c>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>Tea, Delapre Township, Lincoln County, South Dakota, 57064, United States</t>
         </is>
       </c>
     </row>
@@ -8649,7 +10175,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>· 020 7387 5398</t>
+          <t xml:space="preserve"> 020 7387 5398</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8659,7 +10185,18 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>⋅ Closes 7:30 pm</t>
+          <t xml:space="preserve"> Closes 7:30 pm</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>51.5241642</v>
+      </c>
+      <c r="M159" t="n">
+        <v>-0.1388268</v>
+      </c>
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>Transition, 13, Warren Street, Fitzrovia, London Borough of Camden, London, Greater London, England, W1T 5PF, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -8692,7 +10229,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>⋅ 3 pm</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8702,7 +10239,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>· 07399 334015</t>
+          <t xml:space="preserve"> 07399 334015</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8713,6 +10250,17 @@
       <c r="K160" t="inlineStr">
         <is>
           <t>nan</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>40.788106</v>
+      </c>
+      <c r="M160" t="n">
+        <v>35.0218961</v>
+      </c>
+      <c r="N160" t="inlineStr">
+        <is>
+          <t>Null, Saray, Hamamözü, Amasya, Karadeniz Bölgesi, Türkiye</t>
         </is>
       </c>
     </row>
@@ -8751,7 +10299,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>· 07812 982026</t>
+          <t xml:space="preserve"> 07812 982026</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8761,7 +10309,18 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>⋅ Closes 7 pm</t>
+          <t xml:space="preserve"> Closes 7 pm</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>48.8675638</v>
+      </c>
+      <c r="M161" t="n">
+        <v>2.3474832</v>
+      </c>
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>Bubble Tea, Rue du Nil, Quartier de Bonne-Nouvelle, Paris 2e Arrondissement, Paris, Île-de-France, France métropolitaine, 75002, France</t>
         </is>
       </c>
     </row>
@@ -8804,7 +10363,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>· 020 8412 0113</t>
+          <t xml:space="preserve"> 020 8412 0113</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8814,7 +10373,18 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>⋅ Closes 2:30 am</t>
+          <t xml:space="preserve"> Closes 2:30 am</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>51.39911</v>
+      </c>
+      <c r="M162" t="n">
+        <v>-0.0986059</v>
+      </c>
+      <c r="N162" t="inlineStr">
+        <is>
+          <t>Thornton Heath, London Borough of Croydon, London, Greater London, England, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -8857,7 +10427,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>· 020 3617 7829</t>
+          <t xml:space="preserve"> 020 3617 7829</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8867,7 +10437,18 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>⋅ Closes 11 pm</t>
+          <t xml:space="preserve"> Closes 11 pm</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>51.5118049</v>
+      </c>
+      <c r="M163" t="n">
+        <v>-0.1321253</v>
+      </c>
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>Sakurado, 66, Shaftesbury Avenue, St Giles, Bloomsbury, London, Greater London, England, W1D 6LX, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -8900,7 +10481,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>⋅ 3 pm</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8921,6 +10502,17 @@
       <c r="K164" t="inlineStr">
         <is>
           <t>nan</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>40.788106</v>
+      </c>
+      <c r="M164" t="n">
+        <v>35.0218961</v>
+      </c>
+      <c r="N164" t="inlineStr">
+        <is>
+          <t>Null, Saray, Hamamözü, Amasya, Karadeniz Bölgesi, Türkiye</t>
         </is>
       </c>
     </row>
@@ -8959,7 +10551,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>· 07751 575171</t>
+          <t xml:space="preserve"> 07751 575171</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8969,7 +10561,18 @@
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>⋅ Closes 8 pm</t>
+          <t xml:space="preserve"> Closes 8 pm</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>51.5360452</v>
+      </c>
+      <c r="M165" t="n">
+        <v>-0.1238176</v>
+      </c>
+      <c r="N165" t="inlineStr">
+        <is>
+          <t>Canopy Market, Regent's Canal towpath, King's Cross, London Borough of Camden, London, Greater London, England, N1C 4BH, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -9021,6 +10624,17 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="L166" t="n">
+        <v>39.0430148</v>
+      </c>
+      <c r="M166" t="n">
+        <v>-77.3756889</v>
+      </c>
+      <c r="N166" t="inlineStr">
+        <is>
+          <t>22, Newport Court, Sugarland Run Residential Community, Sugarland Run, Loudoun County, Virginia, 20164, United States</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -9061,7 +10675,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>· 020 3337 6554</t>
+          <t xml:space="preserve"> 020 3337 6554</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -9071,7 +10685,18 @@
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>⋅ Closes 8 pm</t>
+          <t xml:space="preserve"> Closes 8 pm</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>37.7263494</v>
+      </c>
+      <c r="M167" t="n">
+        <v>-122.4192154</v>
+      </c>
+      <c r="N167" t="inlineStr">
+        <is>
+          <t>295, Oxford Street, St. Mary's Park, San Francisco, California, 94134, United States</t>
         </is>
       </c>
     </row>
@@ -9110,7 +10735,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>· 020 7734 3888</t>
+          <t xml:space="preserve"> 020 7734 3888</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -9120,7 +10745,18 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>⋅ Closes 10 pm</t>
+          <t xml:space="preserve"> Closes 10 pm</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>51.5107952</v>
+      </c>
+      <c r="M168" t="n">
+        <v>-0.1317928</v>
+      </c>
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>Bake, 9, Wardour Street, Chinatown, City of Westminster, Greater London, England, W1D 6BH, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -9173,7 +10809,18 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>⋅ Closes 11 pm</t>
+          <t xml:space="preserve"> Closes 11 pm</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>51.5139734</v>
+      </c>
+      <c r="M169" t="n">
+        <v>-0.1341419</v>
+      </c>
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>Print Room Soho, 112-114, Wardour Street, Soho, Camden Town, City of Westminster, Greater London, England, W1F 0TH, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -9226,9 +10873,12 @@
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>⋅ Closes 10:30 pm</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> Closes 10:30 pm</t>
+        </is>
+      </c>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -9269,7 +10919,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>· 07462 138209</t>
+          <t xml:space="preserve"> 07462 138209</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -9279,9 +10929,12 @@
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>⋅ Closes 10:30 pm</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> Closes 10:30 pm</t>
+        </is>
+      </c>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -9322,12 +10975,12 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>· 07534 413299</t>
+          <t xml:space="preserve"> 07534 413299</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>⋅ Opens 12 pm Tue</t>
+          <t xml:space="preserve"> Opens 12 pm Tue</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -9335,6 +10988,9 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -9375,7 +11031,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>· 020 7287 2255</t>
+          <t xml:space="preserve"> 020 7287 2255</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -9385,7 +11041,18 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>⋅ Closes 6 pm</t>
+          <t xml:space="preserve"> Closes 6 pm</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>51.5108152</v>
+      </c>
+      <c r="M173" t="n">
+        <v>-0.1349496</v>
+      </c>
+      <c r="N173" t="inlineStr">
+        <is>
+          <t>My Cup of Tea, 5, Denman Place, Soho, City of Westminster, Greater London, England, W1D 7AH, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -9428,7 +11095,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>· 020 8103 5768</t>
+          <t xml:space="preserve"> 020 8103 5768</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -9438,9 +11105,12 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>⋅ Closes 11:30 pm</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> Closes 11:30 pm</t>
+        </is>
+      </c>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -9487,7 +11157,18 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>⋅ Closes 10 pm</t>
+          <t xml:space="preserve"> Closes 10 pm</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>34.220389</v>
+      </c>
+      <c r="M175" t="n">
+        <v>70.38003139999999</v>
+      </c>
+      <c r="N175" t="inlineStr">
+        <is>
+          <t>ننگرهار ولايت, افغانستان</t>
         </is>
       </c>
     </row>
@@ -9530,7 +11211,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>· 07703 634271</t>
+          <t xml:space="preserve"> 07703 634271</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -9540,7 +11221,18 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>⋅ Closes 9 pm</t>
+          <t xml:space="preserve"> Closes 9 pm</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>53.3485587</v>
+      </c>
+      <c r="M176" t="n">
+        <v>-6.3439469</v>
+      </c>
+      <c r="N176" t="inlineStr">
+        <is>
+          <t>12, New Row, Chapelizod, Phoenix Park ED, Dublin, County Dublin, Leinster, D20 FX25, Éire / Ireland</t>
         </is>
       </c>
     </row>
@@ -9579,7 +11271,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>· 07865 679313</t>
+          <t xml:space="preserve"> 07865 679313</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -9589,9 +11281,12 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>⋅ Closes 6 pm</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> Closes 6 pm</t>
+        </is>
+      </c>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -9633,7 +11328,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>· 020 8050 6318</t>
+          <t xml:space="preserve"> 020 8050 6318</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -9643,9 +11338,12 @@
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>⋅ Closes 5 am Sat</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> Closes 5 am Sat</t>
+        </is>
+      </c>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -9686,7 +11384,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>· 07983 043145</t>
+          <t xml:space="preserve"> 07983 043145</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -9697,6 +11395,17 @@
       <c r="K179" t="inlineStr">
         <is>
           <t>nan</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>51.5159781</v>
+      </c>
+      <c r="M179" t="n">
+        <v>-0.0747487</v>
+      </c>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>Goulston Street, Spitalfields, Whitechapel, London Borough of Tower Hamlets, London, Greater London, England, E1 7TP, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -9739,7 +11448,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>· 020 7701 1801</t>
+          <t xml:space="preserve"> 020 7701 1801</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9749,7 +11458,18 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>⋅ Closes 9 pm</t>
+          <t xml:space="preserve"> Closes 9 pm</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>51.491484</v>
+      </c>
+      <c r="M180" t="n">
+        <v>-0.09802900000000001</v>
+      </c>
+      <c r="N180" t="inlineStr">
+        <is>
+          <t>Longdan, 128-132, Walworth Road, Browning Estate, Elephant and Castle, London Borough of Southwark, London, Greater London, England, SE17 1JL, United Kingdom</t>
         </is>
       </c>
     </row>
@@ -9805,6 +11525,17 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="L181" t="n">
+        <v>51.499753</v>
+      </c>
+      <c r="M181" t="n">
+        <v>-0.1621455</v>
+      </c>
+      <c r="N181" t="inlineStr">
+        <is>
+          <t>EL&amp;N, 42, Hans Crescent, Hans Town, Chelsea, Royal Borough of Kensington and Chelsea, London, Greater London, England, SW1X 0NA, United Kingdom</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -9831,7 +11562,7 @@
       <c r="F182" t="inlineStr"/>
       <c r="G182" t="inlineStr">
         <is>
-          <t>teas</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9852,6 +11583,17 @@
       <c r="K182" t="inlineStr">
         <is>
           <t>nan</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>40.788106</v>
+      </c>
+      <c r="M182" t="n">
+        <v>35.0218961</v>
+      </c>
+      <c r="N182" t="inlineStr">
+        <is>
+          <t>Null, Saray, Hamamözü, Amasya, Karadeniz Bölgesi, Türkiye</t>
         </is>
       </c>
     </row>
@@ -9894,7 +11636,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>· 020 3222 0600</t>
+          <t xml:space="preserve"> 020 3222 0600</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9905,6 +11647,17 @@
       <c r="K183" t="inlineStr">
         <is>
           <t>nan</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>47.1845947</v>
+      </c>
+      <c r="M183" t="n">
+        <v>17.1870848</v>
+      </c>
+      <c r="N183" t="inlineStr">
+        <is>
+          <t>Boba, Celldömölki járás, Vas vármegye, Nyugat-Dunántúl, Dunántúl, 9542, Magyarország</t>
         </is>
       </c>
     </row>
@@ -9929,7 +11682,7 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>Temporarily closed</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -9939,7 +11692,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>· 020 7247 6735</t>
+          <t xml:space="preserve"> 020 7247 6735</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9950,6 +11703,17 @@
       <c r="K184" t="inlineStr">
         <is>
           <t>nan</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>40.788106</v>
+      </c>
+      <c r="M184" t="n">
+        <v>35.0218961</v>
+      </c>
+      <c r="N184" t="inlineStr">
+        <is>
+          <t>Null, Saray, Hamamözü, Amasya, Karadeniz Bölgesi, Türkiye</t>
         </is>
       </c>
     </row>
@@ -9978,7 +11742,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>Temporarily closed</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9988,7 +11752,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>· 07709 043406</t>
+          <t xml:space="preserve"> 07709 043406</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9999,6 +11763,17 @@
       <c r="K185" t="inlineStr">
         <is>
           <t>nan</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>40.788106</v>
+      </c>
+      <c r="M185" t="n">
+        <v>35.0218961</v>
+      </c>
+      <c r="N185" t="inlineStr">
+        <is>
+          <t>Null, Saray, Hamamözü, Amasya, Karadeniz Bölgesi, Türkiye</t>
         </is>
       </c>
     </row>
@@ -10027,7 +11802,7 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>places</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -10048,6 +11823,17 @@
       <c r="K186" t="inlineStr">
         <is>
           <t>nan</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>40.788106</v>
+      </c>
+      <c r="M186" t="n">
+        <v>35.0218961</v>
+      </c>
+      <c r="N186" t="inlineStr">
+        <is>
+          <t>Null, Saray, Hamamözü, Amasya, Karadeniz Bölgesi, Türkiye</t>
         </is>
       </c>
     </row>
@@ -10080,7 +11866,7 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>Temporarily closed</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -10090,7 +11876,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>· 07477 229798</t>
+          <t xml:space="preserve"> 07477 229798</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -10101,6 +11887,17 @@
       <c r="K187" t="inlineStr">
         <is>
           <t>nan</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>40.788106</v>
+      </c>
+      <c r="M187" t="n">
+        <v>35.0218961</v>
+      </c>
+      <c r="N187" t="inlineStr">
+        <is>
+          <t>Null, Saray, Hamamözü, Amasya, Karadeniz Bölgesi, Türkiye</t>
         </is>
       </c>
     </row>
@@ -10133,7 +11930,7 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>Temporarily closed</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -10143,7 +11940,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>· 07507 382039</t>
+          <t xml:space="preserve"> 07507 382039</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -10154,6 +11951,17 @@
       <c r="K188" t="inlineStr">
         <is>
           <t>nan</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>40.788106</v>
+      </c>
+      <c r="M188" t="n">
+        <v>35.0218961</v>
+      </c>
+      <c r="N188" t="inlineStr">
+        <is>
+          <t>Null, Saray, Hamamözü, Amasya, Karadeniz Bölgesi, Türkiye</t>
         </is>
       </c>
     </row>
@@ -10186,7 +11994,7 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>Temporarily closed</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -10196,7 +12004,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>· 020 3441 2772</t>
+          <t xml:space="preserve"> 020 3441 2772</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -10207,6 +12015,17 @@
       <c r="K189" t="inlineStr">
         <is>
           <t>nan</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>40.788106</v>
+      </c>
+      <c r="M189" t="n">
+        <v>35.0218961</v>
+      </c>
+      <c r="N189" t="inlineStr">
+        <is>
+          <t>Null, Saray, Hamamözü, Amasya, Karadeniz Bölgesi, Türkiye</t>
         </is>
       </c>
     </row>
@@ -10235,7 +12054,7 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>Temporarily closed</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -10256,6 +12075,17 @@
       <c r="K190" t="inlineStr">
         <is>
           <t>nan</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>40.788106</v>
+      </c>
+      <c r="M190" t="n">
+        <v>35.0218961</v>
+      </c>
+      <c r="N190" t="inlineStr">
+        <is>
+          <t>Null, Saray, Hamamözü, Amasya, Karadeniz Bölgesi, Türkiye</t>
         </is>
       </c>
     </row>
@@ -10284,7 +12114,7 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>Temporarily closed</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -10294,7 +12124,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>· 020 7482 2226</t>
+          <t xml:space="preserve"> 020 7482 2226</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -10305,6 +12135,17 @@
       <c r="K191" t="inlineStr">
         <is>
           <t>nan</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>40.788106</v>
+      </c>
+      <c r="M191" t="n">
+        <v>35.0218961</v>
+      </c>
+      <c r="N191" t="inlineStr">
+        <is>
+          <t>Null, Saray, Hamamözü, Amasya, Karadeniz Bölgesi, Türkiye</t>
         </is>
       </c>
     </row>
@@ -10337,7 +12178,7 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>Temporarily closed</t>
+          <t>null</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -10358,6 +12199,17 @@
       <c r="K192" t="inlineStr">
         <is>
           <t>nan</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>40.788106</v>
+      </c>
+      <c r="M192" t="n">
+        <v>35.0218961</v>
+      </c>
+      <c r="N192" t="inlineStr">
+        <is>
+          <t>Null, Saray, Hamamözü, Amasya, Karadeniz Bölgesi, Türkiye</t>
         </is>
       </c>
     </row>
